--- a/L/LAB3/dane.xlsx
+++ b/L/LAB3/dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uczelnia\Semestr 3\PEIE\L\LAB3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F791562-73A9-401B-9A7E-5D05129B624A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F59A3B9-E63D-4946-B7B4-230AC5470771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Punkty Pracy</t>
   </si>
@@ -42,14 +42,20 @@
     <t>B''</t>
   </si>
   <si>
-    <t>[V]</t>
+    <t>U[V]</t>
+  </si>
+  <si>
+    <t>L.p</t>
+  </si>
+  <si>
+    <t>I[mA]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +63,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,15 +130,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="40% — akcent 3" xfId="4" builtinId="39"/>
+    <cellStyle name="Dane wyjściowe" xfId="3" builtinId="21"/>
+    <cellStyle name="Dobry" xfId="1" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -360,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:D7"/>
+  <dimension ref="C3:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,36 +454,453 @@
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>6.26</v>
+      </c>
+      <c r="E5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>5.2</v>
+      </c>
+      <c r="E6">
+        <v>0.15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>2.75</v>
+      </c>
+      <c r="N6">
+        <v>7.89</v>
+      </c>
+      <c r="O6" s="1">
+        <v>29</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
+      <c r="D7">
+        <v>2.23</v>
+      </c>
+      <c r="E7">
+        <v>6.05</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0.15</v>
+      </c>
+      <c r="K7">
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="1">
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <v>2.85</v>
+      </c>
+      <c r="N7" s="4">
+        <v>7.98</v>
+      </c>
+      <c r="O7" s="1">
+        <v>30</v>
+      </c>
+      <c r="P7">
+        <v>7.5</v>
+      </c>
+      <c r="Q7">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0.3</v>
+      </c>
+      <c r="K8">
+        <v>0.01</v>
+      </c>
+      <c r="L8" s="1">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>2.95</v>
+      </c>
+      <c r="N8">
+        <v>7.73</v>
+      </c>
+      <c r="O8" s="1">
+        <v>31</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>0.45</v>
+      </c>
+      <c r="K9">
+        <v>0.01</v>
+      </c>
+      <c r="L9" s="1">
+        <v>18</v>
+      </c>
+      <c r="M9">
+        <v>3.15</v>
+      </c>
+      <c r="N9">
+        <v>7.09</v>
+      </c>
+      <c r="O9" s="1">
+        <v>32</v>
+      </c>
+      <c r="P9">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0.6</v>
+      </c>
+      <c r="K10">
+        <v>0.02</v>
+      </c>
+      <c r="L10" s="1">
+        <v>19</v>
+      </c>
+      <c r="M10">
+        <v>3.25</v>
+      </c>
+      <c r="N10">
+        <v>6.77</v>
+      </c>
+      <c r="O10" s="1">
+        <v>33</v>
+      </c>
+      <c r="P10">
+        <v>9.5</v>
+      </c>
+      <c r="Q10">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>0.75</v>
+      </c>
+      <c r="K11">
+        <v>0.11</v>
+      </c>
+      <c r="L11" s="1">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="O11" s="1">
+        <v>34</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>0.9</v>
+      </c>
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>21</v>
+      </c>
+      <c r="M12">
+        <v>4.5</v>
+      </c>
+      <c r="N12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O12" s="1">
+        <v>35</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0.84</v>
+      </c>
+      <c r="L13" s="1">
+        <v>22</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>0.52</v>
+      </c>
+      <c r="O13" s="1">
+        <v>36</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>1.3</v>
+      </c>
+      <c r="K14">
+        <v>2.08</v>
+      </c>
+      <c r="L14" s="1">
+        <v>23</v>
+      </c>
+      <c r="M14">
+        <v>5.2</v>
+      </c>
+      <c r="N14">
+        <v>0.18</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>1.6</v>
+      </c>
+      <c r="K15">
+        <v>3.34</v>
+      </c>
+      <c r="L15" s="1">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>5.4</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>1.9</v>
+      </c>
+      <c r="K16">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="L16" s="1">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>5.6</v>
+      </c>
+      <c r="N16">
+        <v>0.16</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>2.35</v>
+      </c>
+      <c r="K17">
+        <v>6.53</v>
+      </c>
+      <c r="L17" s="1">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>5.9</v>
+      </c>
+      <c r="N17">
+        <v>0.38</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="K18">
+        <v>6.93</v>
+      </c>
+      <c r="L18" s="1">
+        <v>27</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K19">
+        <v>7.29</v>
+      </c>
+      <c r="L19" s="1">
+        <v>28</v>
+      </c>
+      <c r="M19">
+        <v>6.5</v>
+      </c>
+      <c r="N19">
+        <v>1.65</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/L/LAB3/dane.xlsx
+++ b/L/LAB3/dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uczelnia\Semestr 3\PEIE\L\LAB3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F59A3B9-E63D-4946-B7B4-230AC5470771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307529AF-3730-44DA-B252-0A7514B4BD74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
       <c r="L7" s="1">
         <v>16</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>2.85</v>
       </c>
       <c r="N7" s="4">
@@ -800,7 +800,7 @@
       <c r="L15" s="1">
         <v>24</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>5.4</v>
       </c>
       <c r="N15" s="3">

--- a/L/LAB3/dane.xlsx
+++ b/L/LAB3/dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uczelnia\Semestr 3\PEIE\L\LAB3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307529AF-3730-44DA-B252-0A7514B4BD74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F56D25-729D-451E-818F-A4DB3D00A954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,35 +455,35 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2.84</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>7.97</v>
       </c>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>6.26</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1.1100000000000001</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -515,13 +515,13 @@
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>5.2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.15</v>
       </c>
       <c r="I6" s="1">
@@ -553,13 +553,13 @@
       </c>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>2.23</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>6.05</v>
       </c>
       <c r="I7" s="1">
